--- a/src/main/java/com/testNg/testdata/HybridTestData.xlsx
+++ b/src/main/java/com/testNg/testdata/HybridTestData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/prathamkumar/eclipse-workspace/HybridTestNGFramework/src/main/java/com/testNg/testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9472ACD9-6EB5-6A4F-A8D2-6FD547D1316F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B56EE85C-0A04-8946-A1D5-2C0694854B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14120" xr2:uid="{82F9A47B-6131-454D-860C-EB3A801A0E09}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="4">
   <si>
     <t>Email</t>
   </si>
@@ -442,7 +442,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="A4:B7"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,12 +476,20 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="3"/>
-      <c r="B4" s="2"/>
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3"/>
-      <c r="B5" s="2"/>
+      <c r="A5" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -490,6 +498,10 @@
     <hyperlink ref="B2" r:id="rId2" xr:uid="{E2F22834-5204-F646-BD65-AEA2009608CD}"/>
     <hyperlink ref="A3" r:id="rId3" xr:uid="{C566F5DB-3B76-E048-8404-8089CA09C68F}"/>
     <hyperlink ref="B3" r:id="rId4" xr:uid="{17F575B3-440C-104E-8D14-38F085C9C0AA}"/>
+    <hyperlink ref="A4" r:id="rId5" xr:uid="{AA31098E-357D-8944-AEF3-57F5023F6B6C}"/>
+    <hyperlink ref="B4" r:id="rId6" xr:uid="{90CD98BC-86AA-604F-B52E-76390154AA1D}"/>
+    <hyperlink ref="A5" r:id="rId7" xr:uid="{E6FBFC67-C377-1B4E-B865-0D8CABC495E6}"/>
+    <hyperlink ref="B5" r:id="rId8" xr:uid="{DA536B56-D2A5-2A41-8D97-C99BCBA18CBC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
